--- a/data/published/2016_ColloffWadeStrange/testOutput.xlsx
+++ b/data/published/2016_ColloffWadeStrange/testOutput.xlsx
@@ -1509,6 +1509,9 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1585,6 +1588,9 @@
       <c r="X11" t="n">
         <v>1</v>
       </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1661,6 +1667,9 @@
       <c r="X12" t="n">
         <v>1.049955149301692</v>
       </c>
+      <c r="Y12" t="n">
+        <v>0.9792250506952584</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1737,6 +1746,9 @@
       <c r="X13" t="n">
         <v>1</v>
       </c>
+      <c r="Y13" t="n">
+        <v>1.196396870043869</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1813,6 +1825,9 @@
       <c r="X14" t="n">
         <v>0.1</v>
       </c>
+      <c r="Y14" t="n">
+        <v>-9.830137559319003e-06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1889,6 +1904,9 @@
       <c r="X15" t="n">
         <v>0.1</v>
       </c>
+      <c r="Y15" t="n">
+        <v>-9.830137559319003e-06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1965,6 +1983,9 @@
       <c r="X16" t="n">
         <v>-0.2346498885358082</v>
       </c>
+      <c r="Y16" t="n">
+        <v>-0.2798935818792961</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2041,6 +2062,9 @@
       <c r="X17" t="n">
         <v>1.944059365877164</v>
       </c>
+      <c r="Y17" t="n">
+        <v>1.878994870569232</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2117,6 +2141,9 @@
       <c r="X18" t="n">
         <v>3.563775961608442</v>
       </c>
+      <c r="Y18" t="n">
+        <v>3.521801081936098</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2277,6 +2304,9 @@
       <c r="X31" t="n">
         <v>130</v>
       </c>
+      <c r="Y31" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2285,73 +2315,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>121.6954873000001</v>
+        <v>118.601680273</v>
       </c>
       <c r="C32" t="n">
-        <v>115.985748067</v>
+        <v>113.188978118</v>
       </c>
       <c r="D32" t="n">
-        <v>21.50205178700003</v>
+        <v>20.34941276800004</v>
       </c>
       <c r="E32" t="n">
-        <v>50.62510710299989</v>
+        <v>46.95743113200001</v>
       </c>
       <c r="F32" t="n">
-        <v>30.33846790799998</v>
+        <v>29.32962865399998</v>
       </c>
       <c r="G32" t="n">
-        <v>338.9319583629999</v>
+        <v>329.207562928</v>
       </c>
       <c r="H32" t="n">
-        <v>26.47315441299997</v>
+        <v>25.31158334899999</v>
       </c>
       <c r="I32" t="n">
-        <v>98.5809663550001</v>
+        <v>92.96131702000002</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28953213599993</v>
+        <v>18.88899304299991</v>
       </c>
       <c r="K32" t="n">
-        <v>30.92412735800008</v>
+        <v>30.78315490500006</v>
       </c>
       <c r="L32" t="n">
-        <v>25.96999276800011</v>
+        <v>24.80936239800008</v>
       </c>
       <c r="M32" t="n">
-        <v>118.4823034380001</v>
+        <v>116.4896158510001</v>
       </c>
       <c r="N32" t="n">
-        <v>37.69232464899983</v>
+        <v>36.24019994700006</v>
       </c>
       <c r="O32" t="n">
-        <v>28.81758575399999</v>
+        <v>28.27962081400005</v>
       </c>
       <c r="P32" t="n">
-        <v>25.34618991599996</v>
+        <v>25.301190787</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.30627640400007</v>
+        <v>50.25439808900001</v>
       </c>
       <c r="R32" t="n">
-        <v>27.20157524800015</v>
+        <v>27.21574131800003</v>
       </c>
       <c r="S32" t="n">
-        <v>93.71432608000009</v>
+        <v>92.84372331300005</v>
       </c>
       <c r="T32" t="n">
-        <v>33.18580006699995</v>
+        <v>32.17093922499998</v>
       </c>
       <c r="U32" t="n">
-        <v>61.40850040199985</v>
+        <v>60.62963718900005</v>
       </c>
       <c r="V32" t="n">
-        <v>23.62290243000007</v>
+        <v>23.45565839100004</v>
       </c>
       <c r="W32" t="n">
-        <v>57.11948727199979</v>
+        <v>55.7932924459999</v>
       </c>
       <c r="X32" t="n">
-        <v>28.09509485799981</v>
+        <v>27.39885405900009</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>72.48427583800003</v>
       </c>
     </row>
     <row r="33">
@@ -2429,6 +2462,9 @@
       <c r="X33" t="n">
         <v>13.41084213790896</v>
       </c>
+      <c r="Y33" t="n">
+        <v>12.53529613792121</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2505,6 +2541,9 @@
       <c r="X34" t="n">
         <v>5</v>
       </c>
+      <c r="Y34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2581,6 +2620,9 @@
       <c r="X35" t="n">
         <v>2.682168427581792</v>
       </c>
+      <c r="Y35" t="n">
+        <v>4.178432045973736</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2664,6 +2706,9 @@
       <c r="X37" t="n">
         <v>189</v>
       </c>
+      <c r="Y37" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2740,6 +2785,9 @@
       <c r="X38" t="n">
         <v>91</v>
       </c>
+      <c r="Y38" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2816,6 +2864,9 @@
       <c r="X39" t="n">
         <v>98</v>
       </c>
+      <c r="Y39" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2892,6 +2943,9 @@
       <c r="X40" t="n">
         <v>0.3061224489795918</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.3061224489795918</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2968,6 +3022,9 @@
       <c r="X41" t="n">
         <v>0.07142857142857142</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.07142857142857142</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3044,6 +3101,9 @@
       <c r="X42" t="n">
         <v>0.9896679335900602</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.9896679335900602</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3118,6 +3178,9 @@
         <v>0.01564133576666851</v>
       </c>
       <c r="X43" t="n">
+        <v>0.01564133576666851</v>
+      </c>
+      <c r="Y43" t="n">
         <v>0.01564133576666851</v>
       </c>
     </row>
